--- a/test_welldan97.xlsx
+++ b/test_welldan97.xlsx
@@ -19,19 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>hi there</t>
   </si>
   <si>
     <t>hi</t>
+  </si>
+  <si>
+    <t>hi theruheotnsau</t>
+  </si>
+  <si>
+    <t>huioatns</t>
+  </si>
+  <si>
+    <t>uheoatns</t>
+  </si>
+  <si>
+    <t>uoeauao</t>
+  </si>
+  <si>
+    <t>uheoatsuao</t>
+  </si>
+  <si>
+    <t>uhaoetnsu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,6 +61,22 @@
       <sz val="14.4"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,14 +97,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -422,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F1" s="1">
         <v>1</v>
@@ -431,11 +473,64 @@
         <v>0</v>
       </c>
       <c r="H1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test_welldan97.xlsx
+++ b/test_welldan97.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>hi there</t>
   </si>
@@ -97,8 +97,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -108,11 +110,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -525,6 +529,32 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>37000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>

--- a/test_welldan97.xlsx
+++ b/test_welldan97.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>hi there</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>uhaoetnsu</t>
+  </si>
+  <si>
+    <t>uoehau</t>
+  </si>
+  <si>
+    <t>huteons</t>
+  </si>
+  <si>
+    <t>uheots</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -556,6 +565,32 @@
       </c>
       <c r="H4" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
